--- a/用例数据/深A/DVP改革/可售交收冻结（T日）/测试结果.xlsx
+++ b/用例数据/深A/DVP改革/可售交收冻结（T日）/测试结果.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="sktlist" sheetId="1" r:id="rId1"/>
+    <sheet name="stklist" sheetId="1" r:id="rId1"/>
     <sheet name="stklistextend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="154">
   <si>
     <t>EXCHID</t>
   </si>
@@ -427,55 +427,9 @@
     <t>E6</t>
   </si>
   <si>
-    <t>73700.0000</t>
-  </si>
-  <si>
-    <t>7.3700</t>
-  </si>
-  <si>
-    <t>39850000.0000</t>
-  </si>
-  <si>
-    <t>79.7000</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>1006000.0000</t>
-  </si>
-  <si>
-    <t>1.0060</t>
-  </si>
-  <si>
-    <t>7970000.0000</t>
-  </si>
-  <si>
-    <r>
-      <t>贴债</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1721</t>
-    </r>
-  </si>
-  <si>
-    <t>0117212000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0117212000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0117252000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SHAREATTR</t>
   </si>
   <si>
@@ -507,13 +461,34 @@
   </si>
   <si>
     <t>180000</t>
+  </si>
+  <si>
+    <t>72000.0000</t>
+  </si>
+  <si>
+    <t>7.2000</t>
+  </si>
+  <si>
+    <t>32105000.0000</t>
+  </si>
+  <si>
+    <t>64.2100</t>
+  </si>
+  <si>
+    <t>1000000.0000</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>6421000.0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,16 +508,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,16 +530,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -860,15 +822,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI42"/>
+  <dimension ref="A1:CH42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1138,19 +1100,19 @@
       <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1163,7 +1125,7 @@
         <v>93</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>94</v>
@@ -1208,7 +1170,7 @@
         <v>99</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>92</v>
@@ -1331,7 +1293,7 @@
         <v>93</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BQ2" s="3" t="s">
         <v>94</v>
@@ -1387,11 +1349,8 @@
       <c r="CH2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI2" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="3" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1401,19 +1360,19 @@
       <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>104</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1650,11 +1609,8 @@
       <c r="CH3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI3" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="4" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -1664,19 +1620,19 @@
       <c r="C4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1689,7 +1645,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>94</v>
@@ -1734,7 +1690,7 @@
         <v>99</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>92</v>
@@ -1857,7 +1813,7 @@
         <v>93</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BQ4" s="3" t="s">
         <v>94</v>
@@ -1913,11 +1869,8 @@
       <c r="CH4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI4" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="5" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -1927,20 +1880,20 @@
       <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>143</v>
+      <c r="H5" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>92</v>
@@ -2176,11 +2129,8 @@
       <c r="CH5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI5" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="6" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -2190,19 +2140,19 @@
       <c r="C6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2439,11 +2389,8 @@
       <c r="CH6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI6" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="7" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
@@ -2453,19 +2400,19 @@
       <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2478,7 +2425,7 @@
         <v>93</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>94</v>
@@ -2523,7 +2470,7 @@
         <v>99</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>92</v>
@@ -2646,7 +2593,7 @@
         <v>93</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="BQ7" s="3" t="s">
         <v>94</v>
@@ -2702,11 +2649,8 @@
       <c r="CH7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI7" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="8" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -2716,19 +2660,19 @@
       <c r="C8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2741,7 +2685,7 @@
         <v>93</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>94</v>
@@ -2786,7 +2730,7 @@
         <v>99</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>92</v>
@@ -2909,7 +2853,7 @@
         <v>93</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BQ8" s="3" t="s">
         <v>94</v>
@@ -2965,11 +2909,8 @@
       <c r="CH8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI8" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="9" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -2979,19 +2920,19 @@
       <c r="C9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -3004,7 +2945,7 @@
         <v>130</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>94</v>
@@ -3049,7 +2990,7 @@
         <v>99</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>92</v>
@@ -3172,7 +3113,7 @@
         <v>93</v>
       </c>
       <c r="BP9" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="BQ9" s="3" t="s">
         <v>94</v>
@@ -3228,11 +3169,8 @@
       <c r="CH9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI9" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="10" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3242,19 +3180,19 @@
       <c r="C10" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -3491,11 +3429,8 @@
       <c r="CH10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI10" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="11" spans="1:87" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -3505,19 +3440,19 @@
       <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>123</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -3530,7 +3465,7 @@
         <v>93</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>94</v>
@@ -3575,7 +3510,7 @@
         <v>99</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>92</v>
@@ -3698,7 +3633,7 @@
         <v>93</v>
       </c>
       <c r="BP11" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="BQ11" s="3" t="s">
         <v>94</v>
@@ -3754,15 +3689,12 @@
       <c r="CH11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CI11" s="3" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3792,6 +3724,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3799,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3828,16 +3761,16 @@
         <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
@@ -3846,13 +3779,13 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3878,7 +3811,7 @@
         <v>98</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>92</v>
@@ -3898,7 +3831,7 @@
       <c r="N2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="3" t="s">
         <v>92</v>
       </c>
@@ -3926,7 +3859,7 @@
         <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>92</v>
@@ -3946,7 +3879,7 @@
       <c r="N3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="3" t="s">
         <v>92</v>
       </c>
@@ -3974,16 +3907,16 @@
         <v>98</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>92</v>
@@ -3994,7 +3927,7 @@
       <c r="N4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="3" t="s">
         <v>92</v>
       </c>
@@ -4022,16 +3955,16 @@
         <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>92</v>
@@ -4042,7 +3975,7 @@
       <c r="N5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="3" t="s">
         <v>92</v>
       </c>
@@ -4070,16 +4003,16 @@
         <v>98</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>92</v>
@@ -4090,7 +4023,7 @@
       <c r="N6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3" t="s">
         <v>92</v>
       </c>
@@ -4118,16 +4051,16 @@
         <v>98</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>92</v>
@@ -4138,7 +4071,7 @@
       <c r="N7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="3" t="s">
         <v>92</v>
       </c>
@@ -4166,16 +4099,16 @@
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>92</v>
@@ -4186,7 +4119,7 @@
       <c r="N8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="3" t="s">
         <v>92</v>
       </c>
@@ -4214,16 +4147,16 @@
         <v>98</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>92</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>92</v>
@@ -4234,7 +4167,7 @@
       <c r="N9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="3" t="s">
         <v>92</v>
       </c>
